--- a/reports/Figures/Tables_lw.xlsx
+++ b/reports/Figures/Tables_lw.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="460" windowWidth="18560" windowHeight="16140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8600" yWindow="460" windowWidth="18560" windowHeight="16140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training vs. Testing" sheetId="3" r:id="rId1"/>
     <sheet name="Testing RMSE" sheetId="1" r:id="rId2"/>
     <sheet name="Variable List" sheetId="2" r:id="rId3"/>
     <sheet name="Avg. Derivatives" sheetId="4" r:id="rId4"/>
+    <sheet name="Partials - % &gt;0 and &lt;0" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Model</t>
   </si>
@@ -168,13 +169,32 @@
   </si>
   <si>
     <t>6-Year Graduation Rate</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>% of Partials Less than 0</t>
+  </si>
+  <si>
+    <t>% of Partials Greater than 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,34 +316,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,14 +352,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -348,38 +369,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -405,6 +438,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="25" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -742,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,16 +787,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="11"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
@@ -771,7 +805,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -785,7 +819,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -797,7 +831,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -809,7 +843,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -821,7 +855,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -833,7 +867,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -845,7 +879,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -857,7 +891,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -871,7 +905,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
@@ -883,7 +917,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
@@ -895,7 +929,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
@@ -907,7 +941,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
@@ -919,7 +953,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
@@ -931,7 +965,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
@@ -968,7 +1002,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -976,13 +1010,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -990,37 +1024,37 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1028,55 +1062,55 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1084,7 +1118,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
@@ -1105,7 +1139,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,171 +1166,171 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="13">
         <v>4.5000000000000001E-6</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="13">
         <v>1.1999999999999999E-6</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="14">
         <v>1.495E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="13">
         <v>1.6200000000000001E-5</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="13">
         <v>1.7E-6</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="16">
         <v>-1.2500000000000001E-5</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="16">
         <v>1.1999999999999999E-6</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="13">
         <v>2.9000000000000002E-6</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="13">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="14">
         <v>4.1900000000000002E-5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="19">
         <v>2.0699999999999998E-5</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="19">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="13">
         <v>-6.9999999999999997E-7</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="13">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <v>2.2019199999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="19">
         <v>4.5000000000000001E-6</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="19">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="16">
         <v>-1.3999999999999999E-6</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="17">
         <v>1.2490599999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="13">
         <v>-5.9999999999999997E-7</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="13">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="14">
         <v>3.5335499999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="13">
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="13">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="14">
         <v>1.62623E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="13">
         <v>2.3999999999999999E-6</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="13">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1307,4 +1341,127 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.18199960000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="31">
+        <v>8.8672130000000005E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.2343161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="31">
+        <v>4.8104630000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="31">
+        <v>3.1700289999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.19131010000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.26911990000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>